--- a/data/trans_dic/IP15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>35,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,74</t>
+          <t>6,35; 33,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 22,73</t>
+          <t>2,95; 27,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 22,5</t>
+          <t>3,92; 30,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 29,31</t>
+          <t>13,47; 57,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 26,06</t>
+          <t>25,3; 62,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,58</t>
+          <t>11,84; 47,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,97</t>
+          <t>12,71; 49,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,84; 26,5</t>
+          <t>20,24; 57,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,48</t>
+          <t>18,89; 43,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,12</t>
+          <t>9,45; 31,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,7</t>
+          <t>11,61; 33,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,26</t>
+          <t>22,55; 50,57</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>22,86%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 23,36</t>
+          <t>15,5; 23,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 27,57</t>
+          <t>14,14; 22,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,06</t>
+          <t>14,44; 22,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,65</t>
+          <t>19,84; 29,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,37</t>
+          <t>16,93; 26,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 24,88</t>
+          <t>15,79; 24,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 21,08</t>
+          <t>16,3; 24,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 23,11</t>
+          <t>15,84; 26,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 18,4</t>
+          <t>17,44; 23,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,02; 25,1</t>
+          <t>15,73; 22,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,18</t>
+          <t>16,51; 22,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 21,71</t>
+          <t>19,72; 27,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 33,53</t>
+          <t>18,47; 29,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 27,4</t>
+          <t>17,49; 27,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 30,32</t>
+          <t>12,45; 21,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 57,11</t>
+          <t>24,49; 37,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,3; 62,59</t>
+          <t>13,41; 23,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 47,08</t>
+          <t>16,7; 27,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 49,42</t>
+          <t>13,52; 22,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,24; 57,27</t>
+          <t>27,95; 47,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 43,2</t>
+          <t>17,27; 24,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 31,98</t>
+          <t>18,28; 25,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 33,13</t>
+          <t>14,25; 21,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,55; 50,57</t>
+          <t>28,07; 39,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,47; 29,67</t>
+          <t>14,81; 23,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 27,66</t>
+          <t>18,37; 27,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 21,78</t>
+          <t>10,56; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,49; 37,65</t>
+          <t>14,39; 23,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 23,77</t>
+          <t>8,58; 16,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 27,01</t>
+          <t>15,44; 24,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 22,96</t>
+          <t>12,04; 21,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,95; 47,29</t>
+          <t>13,62; 23,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,89</t>
+          <t>12,67; 18,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 25,5</t>
+          <t>18,02; 25,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,06</t>
+          <t>12,21; 18,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,07; 39,46</t>
+          <t>14,95; 21,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 33,53</t>
+          <t>6,88; 34,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 27,4</t>
+          <t>2,89; 28,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 30,32</t>
+          <t>3,83; 30,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 62,59</t>
+          <t>24,83; 60,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 47,08</t>
+          <t>13,21; 49,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 49,42</t>
+          <t>12,15; 49,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,89; 43,2</t>
+          <t>19,31; 42,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 31,98</t>
+          <t>9,58; 31,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 33,13</t>
+          <t>10,96; 33,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 24,58</t>
+          <t>13,3; 24,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,52; 30,62</t>
+          <t>18,44; 32,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 22,95</t>
+          <t>11,25; 22,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 26,15</t>
+          <t>12,9; 26,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 26,19</t>
+          <t>14,3; 26,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 29,02</t>
+          <t>15,59; 29,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 23,32</t>
+          <t>10,59; 22,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 25,16</t>
+          <t>13,24; 25,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,5</t>
+          <t>15,69; 23,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 27,85</t>
+          <t>18,84; 27,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,9</t>
+          <t>12,57; 20,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,7</t>
+          <t>14,32; 23,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,74</t>
+          <t>15,82; 23,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 22,73</t>
+          <t>13,84; 22,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 22,5</t>
+          <t>14,64; 22,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 29,31</t>
+          <t>19,8; 29,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 26,06</t>
+          <t>17,09; 25,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 24,58</t>
+          <t>16,19; 25,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,97</t>
+          <t>16,55; 25,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 26,5</t>
+          <t>16,14; 26,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,48</t>
+          <t>17,43; 23,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,12</t>
+          <t>15,82; 22,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,7</t>
+          <t>16,48; 22,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,26</t>
+          <t>19,86; 26,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 29,67</t>
+          <t>18,55; 29,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 27,66</t>
+          <t>17,04; 27,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 21,78</t>
+          <t>12,62; 21,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 37,65</t>
+          <t>24,44; 38,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 23,77</t>
+          <t>13,77; 23,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 27,01</t>
+          <t>16,44; 26,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 22,96</t>
+          <t>13,58; 23,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 47,29</t>
+          <t>28,05; 46,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,89</t>
+          <t>17,57; 24,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 25,5</t>
+          <t>17,96; 25,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,06</t>
+          <t>13,78; 20,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,07; 39,46</t>
+          <t>28,36; 39,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 23,36</t>
+          <t>14,5; 23,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 27,57</t>
+          <t>18,35; 28,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,06</t>
+          <t>10,85; 19,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,65</t>
+          <t>14,08; 24,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,37</t>
+          <t>8,67; 16,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,44; 24,88</t>
+          <t>15,31; 24,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 21,08</t>
+          <t>11,82; 20,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 23,11</t>
+          <t>13,76; 23,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 18,4</t>
+          <t>12,89; 18,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,02; 25,1</t>
+          <t>18,1; 25,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,18</t>
+          <t>12,19; 18,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 21,71</t>
+          <t>14,86; 21,82</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 22,56</t>
+          <t>17,58; 22,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,46</t>
+          <t>18,73; 23,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,82</t>
+          <t>14,35; 19,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,79; 26,67</t>
+          <t>20,93; 26,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,07; 20,79</t>
+          <t>16,15; 20,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,26; 23,23</t>
+          <t>18,08; 23,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,56</t>
+          <t>15,73; 20,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,66</t>
+          <t>21,12; 28,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,66; 20,86</t>
+          <t>17,49; 20,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,72</t>
+          <t>19,09; 22,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,61; 18,91</t>
+          <t>15,75; 18,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,08</t>
+          <t>21,69; 26,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 34,28</t>
+          <t>7,45; 35,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 28,08</t>
+          <t>2,86; 25,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 30,41</t>
+          <t>3,7; 28,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 57,11</t>
+          <t>14,44; 57,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 60,41</t>
+          <t>25,87; 60,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 49,22</t>
+          <t>11,34; 47,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,15; 49,86</t>
+          <t>12,27; 49,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 57,27</t>
+          <t>19,05; 55,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 42,81</t>
+          <t>18,98; 43,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 31,97</t>
+          <t>9,49; 30,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 33,41</t>
+          <t>11,77; 34,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 50,57</t>
+          <t>23,06; 51,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 24,69</t>
+          <t>13,75; 24,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 32,33</t>
+          <t>19,24; 30,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 22,48</t>
+          <t>11,79; 23,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,9; 26,04</t>
+          <t>12,29; 25,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 26,66</t>
+          <t>14,81; 26,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 29,04</t>
+          <t>15,84; 28,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 22,14</t>
+          <t>11,17; 22,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 25,13</t>
+          <t>13,1; 26,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 23,28</t>
+          <t>15,57; 23,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 27,67</t>
+          <t>18,82; 27,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,78</t>
+          <t>12,64; 20,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,53</t>
+          <t>14,56; 23,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,77</t>
+          <t>15,4; 23,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 22,52</t>
+          <t>13,97; 22,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,91</t>
+          <t>14,44; 23,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 29,58</t>
+          <t>19,92; 29,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 25,91</t>
+          <t>17,01; 25,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 25,11</t>
+          <t>16,22; 24,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 25,19</t>
+          <t>16,4; 24,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 26,95</t>
+          <t>16,33; 26,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 23,65</t>
+          <t>17,22; 23,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 22,19</t>
+          <t>16,28; 22,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 22,5</t>
+          <t>16,59; 22,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 26,88</t>
+          <t>19,71; 26,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 29,04</t>
+          <t>18,06; 29,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 27,04</t>
+          <t>17,2; 27,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 21,66</t>
+          <t>12,62; 22,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 38,36</t>
+          <t>24,14; 38,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,14</t>
+          <t>13,69; 23,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 26,28</t>
+          <t>16,49; 26,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 23,49</t>
+          <t>13,24; 22,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,05; 46,0</t>
+          <t>27,96; 46,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,68</t>
+          <t>17,4; 24,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,36</t>
+          <t>18,27; 25,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 20,81</t>
+          <t>14,06; 20,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,36; 39,05</t>
+          <t>28,04; 39,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,54</t>
+          <t>14,39; 23,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,35; 28,29</t>
+          <t>18,45; 28,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,21</t>
+          <t>10,86; 18,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 24,33</t>
+          <t>14,16; 24,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 16,78</t>
+          <t>8,54; 16,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,58</t>
+          <t>15,07; 24,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,66</t>
+          <t>12,06; 20,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 23,61</t>
+          <t>13,65; 23,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,57</t>
+          <t>12,91; 18,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,1; 25,59</t>
+          <t>18,14; 25,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 18,23</t>
+          <t>12,34; 18,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,82</t>
+          <t>14,81; 21,62</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,37</t>
+          <t>17,86; 22,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,95</t>
+          <t>18,76; 23,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 19,17</t>
+          <t>14,43; 18,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,93; 26,86</t>
+          <t>21,16; 26,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,7</t>
+          <t>15,98; 20,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,39</t>
+          <t>18,37; 23,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,4</t>
+          <t>16,01; 20,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,17</t>
+          <t>20,85; 28,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,98</t>
+          <t>17,53; 20,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,76</t>
+          <t>19,27; 22,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,92</t>
+          <t>15,74; 18,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,21</t>
+          <t>21,65; 26,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>20,76%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 35,26</t>
+          <t>18,17; 30,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 25,98</t>
+          <t>16,14; 28,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 28,26</t>
+          <t>13,42; 24,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 57,93</t>
+          <t>16,41; 28,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,87; 60,77</t>
+          <t>14,05; 24,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 47,71</t>
+          <t>16,51; 27,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 49,12</t>
+          <t>11,61; 22,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,05; 55,56</t>
+          <t>12,96; 26,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,98; 43,38</t>
+          <t>17,77; 25,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 30,62</t>
+          <t>18,64; 27,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 34,56</t>
+          <t>13,42; 21,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 51,59</t>
+          <t>16,34; 25,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 24,77</t>
+          <t>16,93; 26,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 30,98</t>
+          <t>15,79; 24,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 23,2</t>
+          <t>16,3; 24,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 25,96</t>
+          <t>17,02; 31,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 26,63</t>
+          <t>15,5; 23,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 28,23</t>
+          <t>14,14; 22,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 22,7</t>
+          <t>14,44; 22,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,1; 26,05</t>
+          <t>20,35; 30,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,57; 23,39</t>
+          <t>17,44; 23,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,82; 27,67</t>
+          <t>15,73; 22,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,72</t>
+          <t>16,51; 22,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,53</t>
+          <t>20,9; 29,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>36,08%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,63</t>
+          <t>13,41; 23,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 22,31</t>
+          <t>16,7; 27,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 23,06</t>
+          <t>13,52; 22,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,39</t>
+          <t>29,11; 64,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 25,69</t>
+          <t>18,47; 29,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 24,7</t>
+          <t>17,49; 27,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,4; 24,81</t>
+          <t>12,45; 21,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 26,82</t>
+          <t>24,21; 37,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,46</t>
+          <t>17,27; 24,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 22,33</t>
+          <t>18,28; 25,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 22,56</t>
+          <t>14,25; 21,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 26,39</t>
+          <t>29,14; 53,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 29,31</t>
+          <t>8,58; 16,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 27,76</t>
+          <t>15,44; 24,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 22,08</t>
+          <t>12,04; 21,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 38,33</t>
+          <t>13,88; 23,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,47</t>
+          <t>14,81; 23,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 26,35</t>
+          <t>18,37; 27,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 22,54</t>
+          <t>10,56; 19,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 46,03</t>
+          <t>14,44; 23,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,73</t>
+          <t>12,67; 18,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 25,59</t>
+          <t>18,02; 25,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,73</t>
+          <t>12,21; 18,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 39,38</t>
+          <t>15,18; 21,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,44</t>
+          <t>16,07; 20,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,45; 28,06</t>
+          <t>18,26; 23,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 18,82</t>
+          <t>15,72; 20,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,16; 24,09</t>
+          <t>22,39; 37,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,13</t>
+          <t>17,63; 22,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,63</t>
+          <t>18,59; 23,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,66</t>
+          <t>14,34; 18,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,65; 23,38</t>
+          <t>20,87; 26,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,33</t>
+          <t>17,66; 20,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,07</t>
+          <t>19,17; 22,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 18,77</t>
+          <t>15,61; 18,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,62</t>
+          <t>22,74; 31,08</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,76%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,3%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>23,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 22,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 23,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 18,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,16; 26,95</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,98; 20,72</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 23,32</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 20,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20,85; 28,06</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 20,97</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 22,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,74; 18,92</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>21,65; 26,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
